--- a/docs/pin_config.xlsx
+++ b/docs/pin_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ElectroMagnet</t>
   </si>
@@ -75,19 +75,49 @@
     </r>
   </si>
   <si>
-    <t>GPIO 17</t>
-  </si>
-  <si>
-    <t>GPIO 27</t>
-  </si>
-  <si>
     <t>GPIO 4</t>
   </si>
   <si>
-    <t>GPIO 18</t>
-  </si>
-  <si>
     <t>GPIO 21</t>
+  </si>
+  <si>
+    <t>GPIO 19</t>
+  </si>
+  <si>
+    <t>GPIO 26</t>
+  </si>
+  <si>
+    <t>GPIO 23</t>
+  </si>
+  <si>
+    <t>GPIO 24</t>
+  </si>
+  <si>
+    <t>GPIO 20</t>
+  </si>
+  <si>
+    <t>Output (DIR)</t>
+  </si>
+  <si>
+    <t>GROUND</t>
+  </si>
+  <si>
+    <t>CollisionSensor</t>
+  </si>
+  <si>
+    <t>GPIO 25</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>StartKnopf (Backup)</t>
+  </si>
+  <si>
+    <t>GPIO 12</t>
+  </si>
+  <si>
+    <t>(BOARD 6) GND</t>
   </si>
 </sst>
 </file>
@@ -117,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +172,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,15 +223,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -199,6 +259,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,13 +305,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12117</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -244,7 +329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="825500" y="2374900"/>
+          <a:off x="825500" y="3441700"/>
           <a:ext cx="5308017" cy="3632200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -520,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,77 +618,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6" t="s">
+    <row r="10" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>1</v>
+      <c r="E12" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
